--- a/National/Visualization/Infografias/Derecho a una defensa oportua y adecuada.xlsx
+++ b/National/Visualization/Infografias/Derecho a una defensa oportua y adecuada.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet 3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet 4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -860,6 +861,53 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7043</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.404050255292295</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10388</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.595949744707705</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="07e1bd31056440edbffe4983db46a097">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4352c450c4ad1c8576d7c278c1a2353" ns2:_="" ns3:_="">
@@ -1113,9 +1161,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BCDC1D4-FB73-425D-A787-A50F2CCF71BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B765C3E2-F32A-4B07-AD73-35723DF3718B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAC8ABC0-B848-4469-872F-544E38D61613}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14F871A7-6E8A-4D23-9DC5-275508F16F41}"/>
 </file>